--- a/medicine/Psychotrope/Acétyl_fentanyl/Acétyl_fentanyl.xlsx
+++ b/medicine/Psychotrope/Acétyl_fentanyl/Acétyl_fentanyl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tyl_fentanyl</t>
+          <t>Acétyl_fentanyl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'acétylfentanyl (acetyl fentanyl ou desméthyl fentanyl) est un médicament analgésique opioïde analogue au fentanyl.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tyl_fentanyl</t>
+          <t>Acétyl_fentanyl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Drogue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été découvert à la même période que le fentanyl mais il était peu présent sur le marché illicite dans les années 1980.
 Cependant en 2013, les policiers canadiens ont découvert un groupe de distribution de plus de 3 kg et 12 400 comprimés, ce qui équivaut à 117 400 doses.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tyl_fentanyl</t>
+          <t>Acétyl_fentanyl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Puissance et effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les rongeurs, l'acétyle fentanyl est 40 fois plus puissant que l'héroïne, 80 fois plus puissant que la morphine, et 15 fois moins puissant que le fentanyl. Chez l'humain, il est estimé cinq fois plus puissant que l'héroïne.
 Les effets secondaires comprennent démangeaisons, nausées et dépression respiratoire, qui peut être potentiellement mortelle.
